--- a/medicine/Œil et vue/Voie_ophtalmique/Voie_ophtalmique.xlsx
+++ b/medicine/Œil et vue/Voie_ophtalmique/Voie_ophtalmique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une voie ophtalmique ou voie oculaire est une voie d'administration de médicaments au niveau de l’œil. application d'un principe actif sur la muqueuse conjonctive ou les sac conjonctival en vue d'une action locale.
 </t>
@@ -511,7 +523,9 @@
           <t>Formes galéniques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Différentes formes galéniques sont possibles : les collyres ou gouttes ophtalmiques, les pommades ophtalmiques, les gels ophtalmiques, les bains oculaires, les solutions pour lavage ophtalmique, les poudres administrées après dissolution ou dispersion, etc.
 Ces formes galéniques doivent être stériles, isotoniques et à pH proche de celui des larmes. 
